--- a/UI.xlsx
+++ b/UI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Slider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F705592B-8819-475C-9919-ABB4F03B97D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143A203-9075-4B8C-8E0E-A3AACC205E92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14844" xr2:uid="{F59BDB6B-2245-4CBD-BAC0-2BDF1135FAC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Position</t>
   </si>
@@ -55,6 +55,102 @@
   </si>
   <si>
     <t>move down</t>
+  </si>
+  <si>
+    <t>simple time lapse</t>
+  </si>
+  <si>
+    <t>advanced time lapse</t>
+  </si>
+  <si>
+    <t>Ready to calibrate?</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Calibrating; Please wait</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Percentage done</t>
+  </si>
+  <si>
+    <t>Time elapsed</t>
+  </si>
+  <si>
+    <t>Distance Traveled</t>
+  </si>
+  <si>
+    <t>GO / STOP</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Test Shot</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Playback</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Move to In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Motor Loc</t>
+  </si>
+  <si>
+    <t>Edge Buffer</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Update from SD</t>
+  </si>
+  <si>
+    <t>Move to Out</t>
+  </si>
+  <si>
+    <t>Shots taken</t>
+  </si>
+  <si>
+    <t>moving to in / GO/ STOP</t>
   </si>
 </sst>
 </file>
@@ -406,19 +502,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594898A-ADE7-42A8-88F9-562551D824EF}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -426,22 +525,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -449,19 +548,186 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/UI.xlsx
+++ b/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Slider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143A203-9075-4B8C-8E0E-A3AACC205E92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4661F-9C6B-445E-B0CB-6E55F7C28E41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14844" xr2:uid="{F59BDB6B-2245-4CBD-BAC0-2BDF1135FAC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Position</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Percentage done</t>
   </si>
   <si>
-    <t>Time elapsed</t>
-  </si>
-  <si>
-    <t>Distance Traveled</t>
-  </si>
-  <si>
     <t>GO / STOP</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Settings</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Motor Loc</t>
   </si>
   <si>
@@ -147,10 +138,19 @@
     <t>Move to Out</t>
   </si>
   <si>
-    <t>Shots taken</t>
-  </si>
-  <si>
     <t>moving to in / GO/ STOP</t>
+  </si>
+  <si>
+    <t>Time elapsed (elapsed/total)</t>
+  </si>
+  <si>
+    <t>Shots taken (#/total)</t>
+  </si>
+  <si>
+    <t>Distance Traveled (traveled/total)</t>
+  </si>
+  <si>
+    <t>Model (slider length)</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594898A-ADE7-42A8-88F9-562551D824EF}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
     <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -640,46 +640,46 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -687,47 +687,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
